--- a/CasoAplicacion/data.xlsx
+++ b/CasoAplicacion/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ch_gomez171_uniandes_edu_co/Documents/PRINCIPIOS DE OPTIMIZACION/202310/Proyecto/Solución/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Andes\7\OPTI\Github\Optimizacion\CasoAplicacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{AC497A52-6B83-40AA-A5BA-319580DE42A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6132122-55DB-5C49-BCCA-ED0BBE6E5751}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD7E76-1734-4095-90EC-F877BD842273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="0" windowWidth="21780" windowHeight="22400" xr2:uid="{8911D5AF-85F1-4C99-83DC-C2CD671227A0}"/>
+    <workbookView xWindow="13230" yWindow="4605" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{8911D5AF-85F1-4C99-83DC-C2CD671227A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 2" sheetId="2" r:id="rId1"/>
     <sheet name="Tabla 3" sheetId="3" r:id="rId2"/>
+    <sheet name="Demanda" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Motores</t>
   </si>
@@ -56,12 +57,18 @@
   <si>
     <t>Rendimiento</t>
   </si>
+  <si>
+    <t>Partes</t>
+  </si>
+  <si>
+    <t>Demanda Semanal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +80,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -125,6 +140,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,16 +460,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326AC993-843E-4A03-AD41-4AC3FC9A6305}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -468,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,7 +501,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -496,7 +515,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -510,7 +529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -524,7 +543,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -538,7 +557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,12 +590,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -594,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -608,7 +627,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -622,7 +641,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -636,7 +655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -650,7 +669,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -667,4 +686,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA5CC03-40E0-4501-A6BF-B14EDABA73D4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>